--- a/services and tables for each.xlsx
+++ b/services and tables for each.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Identity" sheetId="1" r:id="rId1"/>
-    <sheet name="checkout" sheetId="2" r:id="rId2"/>
+    <sheet name="cart" sheetId="2" r:id="rId2"/>
     <sheet name="LibraryCatalog" sheetId="3" r:id="rId3"/>
     <sheet name="LibraryServices" sheetId="4" r:id="rId4"/>
     <sheet name="Payment" sheetId="5" r:id="rId5"/>
     <sheet name="LateReturnFee" sheetId="6" r:id="rId6"/>
     <sheet name="Location" sheetId="7" r:id="rId7"/>
     <sheet name="Loan" sheetId="8" r:id="rId8"/>
+    <sheet name="How to register new user" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Member</t>
   </si>
@@ -112,6 +113,12 @@
   </si>
   <si>
     <t>Use Azure func to send reminders</t>
+  </si>
+  <si>
+    <t>https://github.com/IdentityServer/IdentityServer4/issues/1969</t>
+  </si>
+  <si>
+    <t>https://github.com/damienbod/AspNet5IdentityServerAngularImplicitFlow</t>
   </si>
 </sst>
 </file>
@@ -504,7 +511,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -761,4 +768,32 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="62.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/services and tables for each.xlsx
+++ b/services and tables for each.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Identity" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Location" sheetId="7" r:id="rId7"/>
     <sheet name="Loan" sheetId="8" r:id="rId8"/>
     <sheet name="How to register new user" sheetId="9" r:id="rId9"/>
+    <sheet name="API Gateway" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -506,6 +507,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
@@ -774,7 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
